--- a/f.xlsx
+++ b/f.xlsx
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>65.78</v>
       </c>
       <c r="D2" t="n">
-        <v>112.99</v>
+        <v>113</v>
       </c>
       <c r="E2" t="n">
-        <v>18.35532711175444</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>136.49</v>
       </c>
       <c r="E3" t="n">
-        <v>18.75666752663839</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>153.03</v>
       </c>
       <c r="E4" t="n">
-        <v>22.33405058750919</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         <v>142.34</v>
       </c>
       <c r="E5" t="n">
-        <v>21.49875891058677</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>144.3</v>
       </c>
       <c r="E6" t="n">
-        <v>22.07216435904125</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>123.3</v>
       </c>
       <c r="E7" t="n">
-        <v>18.36366919048744</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="8">
@@ -571,7 +571,7 @@
         <v>141.49</v>
       </c>
       <c r="E8" t="n">
-        <v>20.41384248982241</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="9">
@@ -588,7 +588,7 @@
         <v>136.46</v>
       </c>
       <c r="E9" t="n">
-        <v>19.57019124855257</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>112.37</v>
       </c>
       <c r="E10" t="n">
-        <v>17.1324980263535</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="11">
@@ -622,7 +622,7 @@
         <v>120.67</v>
       </c>
       <c r="E11" t="n">
-        <v>19.0202552772279</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
         <v>127.45</v>
       </c>
       <c r="E12" t="n">
-        <v>20.26455316981206</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>114.14</v>
       </c>
       <c r="E13" t="n">
-        <v>17.54677848646343</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>125.61</v>
       </c>
       <c r="E14" t="n">
-        <v>18.92747435398728</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>122.46</v>
       </c>
       <c r="E15" t="n">
-        <v>19.10733938466091</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="16">
@@ -707,7 +707,7 @@
         <v>116.09</v>
       </c>
       <c r="E16" t="n">
-        <v>17.50320762491745</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>19.47246201703503</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -741,7 +741,7 @@
         <v>129.5</v>
       </c>
       <c r="E18" t="n">
-        <v>20.60909649539041</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +758,7 @@
         <v>142.97</v>
       </c>
       <c r="E19" t="n">
-        <v>21.32424640324911</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
         <v>137.9</v>
       </c>
       <c r="E20" t="n">
-        <v>19.1050525084111</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="21">
@@ -792,7 +792,7 @@
         <v>124.04</v>
       </c>
       <c r="E21" t="n">
-        <v>19.34809991059295</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="22">
@@ -809,7 +809,7 @@
         <v>141.28</v>
       </c>
       <c r="E22" t="n">
-        <v>21.58474440102156</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="23">
@@ -826,7 +826,7 @@
         <v>143.54</v>
       </c>
       <c r="E23" t="n">
-        <v>21.26652461790182</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>17.07728057405572</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +860,7 @@
         <v>129.5</v>
       </c>
       <c r="E25" t="n">
-        <v>19.44524802102664</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="26">
@@ -877,7 +877,7 @@
         <v>141.85</v>
       </c>
       <c r="E26" t="n">
-        <v>21.80019726417587</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="27">
@@ -894,7 +894,7 @@
         <v>129.72</v>
       </c>
       <c r="E27" t="n">
-        <v>20.18594136272347</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +911,7 @@
         <v>142.42</v>
       </c>
       <c r="E28" t="n">
-        <v>19.94911962347559</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -928,7 +928,7 @@
         <v>131.55</v>
       </c>
       <c r="E29" t="n">
-        <v>20.30120675751756</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="30">
@@ -945,7 +945,7 @@
         <v>108.33</v>
       </c>
       <c r="E30" t="n">
-        <v>17.20376709411255</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="31">
@@ -962,7 +962,7 @@
         <v>113.89</v>
       </c>
       <c r="E31" t="n">
-        <v>18.69428544881459</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="32">
@@ -979,7 +979,7 @@
         <v>103.3</v>
       </c>
       <c r="E32" t="n">
-        <v>15.02417566514696</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +996,7 @@
         <v>120.75</v>
       </c>
       <c r="E33" t="n">
-        <v>19.59806600365379</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="34">
@@ -1013,7 +1013,7 @@
         <v>125.79</v>
       </c>
       <c r="E34" t="n">
-        <v>19.22385156264884</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>136.22</v>
       </c>
       <c r="E35" t="n">
-        <v>19.21061781357487</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="36">
@@ -1047,7 +1047,7 @@
         <v>140.1</v>
       </c>
       <c r="E36" t="n">
-        <v>19.1028913222234</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="37">
@@ -1064,7 +1064,7 @@
         <v>128.75</v>
       </c>
       <c r="E37" t="n">
-        <v>18.89380363525719</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="38">
@@ -1081,7 +1081,7 @@
         <v>141.8</v>
       </c>
       <c r="E38" t="n">
-        <v>22.33742791735288</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="39">
@@ -1098,7 +1098,7 @@
         <v>121.23</v>
       </c>
       <c r="E39" t="n">
-        <v>18.61469721491261</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="40">
@@ -1115,7 +1115,7 @@
         <v>131.35</v>
       </c>
       <c r="E40" t="n">
-        <v>20.07947930032102</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="41">
@@ -1132,7 +1132,7 @@
         <v>106.71</v>
       </c>
       <c r="E41" t="n">
-        <v>18.28423143963898</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="42">
@@ -1149,7 +1149,7 @@
         <v>124.36</v>
       </c>
       <c r="E42" t="n">
-        <v>18.59183569238017</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="43">
@@ -1166,7 +1166,7 @@
         <v>124.86</v>
       </c>
       <c r="E43" t="n">
-        <v>20.65877075854662</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="44">
@@ -1183,7 +1183,7 @@
         <v>139.67</v>
       </c>
       <c r="E44" t="n">
-        <v>20.23233703884686</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="45">
@@ -1200,7 +1200,7 @@
         <v>137.37</v>
       </c>
       <c r="E45" t="n">
-        <v>20.90100728174821</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="46">
@@ -1217,7 +1217,7 @@
         <v>106.45</v>
       </c>
       <c r="E46" t="n">
-        <v>17.18821991007954</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="47">
@@ -1234,7 +1234,7 @@
         <v>128.76</v>
       </c>
       <c r="E47" t="n">
-        <v>19.19361288891528</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>145.68</v>
       </c>
       <c r="E48" t="n">
-        <v>22.89376718885876</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="49">
@@ -1268,7 +1268,7 @@
         <v>116.82</v>
       </c>
       <c r="E49" t="n">
-        <v>17.91635762339399</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="50">
@@ -1285,7 +1285,7 @@
         <v>143.62</v>
       </c>
       <c r="E50" t="n">
-        <v>20.70928436608012</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="51">
@@ -1302,7 +1302,7 @@
         <v>134.93</v>
       </c>
       <c r="E51" t="n">
-        <v>19.86954824808609</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="52">
@@ -1319,7 +1319,7 @@
         <v>147.02</v>
       </c>
       <c r="E52" t="n">
-        <v>21.14499916397004</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="53">
@@ -1336,7 +1336,7 @@
         <v>126.33</v>
       </c>
       <c r="E53" t="n">
-        <v>19.58840728529221</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="54">
@@ -1353,7 +1353,7 @@
         <v>125.48</v>
       </c>
       <c r="E54" t="n">
-        <v>17.86259128022733</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="55">
@@ -1370,7 +1370,7 @@
         <v>115.71</v>
       </c>
       <c r="E55" t="n">
-        <v>17.0343143331837</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -1387,7 +1387,7 @@
         <v>123.49</v>
       </c>
       <c r="E56" t="n">
-        <v>20.30728277351938</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="57">
@@ -1404,7 +1404,7 @@
         <v>147.89</v>
       </c>
       <c r="E57" t="n">
-        <v>21.10677785713671</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="58">
@@ -1421,7 +1421,7 @@
         <v>155.9</v>
       </c>
       <c r="E58" t="n">
-        <v>22.10483536725463</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="59">
@@ -1438,7 +1438,7 @@
         <v>128.07</v>
       </c>
       <c r="E59" t="n">
-        <v>20.33254183796137</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="60">
@@ -1455,7 +1455,7 @@
         <v>119.37</v>
       </c>
       <c r="E60" t="n">
-        <v>19.05426922856218</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="61">
@@ -1472,7 +1472,7 @@
         <v>133.81</v>
       </c>
       <c r="E61" t="n">
-        <v>20.61941389104875</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="62">
@@ -1489,7 +1489,7 @@
         <v>128.73</v>
       </c>
       <c r="E62" t="n">
-        <v>20.46191785300073</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1506,7 @@
         <v>137.55</v>
       </c>
       <c r="E63" t="n">
-        <v>20.30823926172112</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="64">
@@ -1523,7 +1523,7 @@
         <v>129.76</v>
       </c>
       <c r="E64" t="n">
-        <v>19.55281484096321</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="65">
@@ -1540,7 +1540,7 @@
         <v>128.82</v>
       </c>
       <c r="E65" t="n">
-        <v>20.16572856072955</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="66">
@@ -1557,7 +1557,7 @@
         <v>135.32</v>
       </c>
       <c r="E66" t="n">
-        <v>18.97066952242567</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>109.61</v>
       </c>
       <c r="E67" t="n">
-        <v>16.55528287332735</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>142.47</v>
       </c>
       <c r="E68" t="n">
-        <v>20.9981065168467</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -1608,7 +1608,7 @@
         <v>132.75</v>
       </c>
       <c r="E69" t="n">
-        <v>20.34146541831581</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>103.53</v>
       </c>
       <c r="E70" t="n">
-        <v>16.10567962745163</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1642,7 @@
         <v>124.73</v>
       </c>
       <c r="E71" t="n">
-        <v>19.31735610168178</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="72">
@@ -1659,7 +1659,7 @@
         <v>129.31</v>
       </c>
       <c r="E72" t="n">
-        <v>21.33608557080561</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="73">
@@ -1676,7 +1676,7 @@
         <v>134.02</v>
       </c>
       <c r="E73" t="n">
-        <v>18.7725109671268</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="74">
@@ -1693,7 +1693,7 @@
         <v>140.4</v>
       </c>
       <c r="E74" t="n">
-        <v>20.18710893966568</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="75">
@@ -1710,7 +1710,7 @@
         <v>102.84</v>
       </c>
       <c r="E75" t="n">
-        <v>17.48980931715981</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="76">
@@ -1727,7 +1727,7 @@
         <v>128.52</v>
       </c>
       <c r="E76" t="n">
-        <v>19.39435155286203</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="77">
@@ -1744,7 +1744,7 @@
         <v>120.3</v>
       </c>
       <c r="E77" t="n">
-        <v>19.20271917731448</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="78">
@@ -1761,7 +1761,7 @@
         <v>138.6</v>
       </c>
       <c r="E78" t="n">
-        <v>20.84821995520901</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>132.96</v>
       </c>
       <c r="E79" t="n">
-        <v>21.79784314482653</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="80">
@@ -1795,7 +1795,7 @@
         <v>115.62</v>
       </c>
       <c r="E80" t="n">
-        <v>16.71968404819633</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="81">
@@ -1812,7 +1812,7 @@
         <v>122.52</v>
       </c>
       <c r="E81" t="n">
-        <v>18.77390842223769</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="82">
@@ -1829,7 +1829,7 @@
         <v>134.63</v>
       </c>
       <c r="E82" t="n">
-        <v>20.08617093557874</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>121.9</v>
       </c>
       <c r="E83" t="n">
-        <v>19.21413042424862</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="84">
@@ -1863,7 +1863,7 @@
         <v>155.38</v>
       </c>
       <c r="E84" t="n">
-        <v>22.25813109763239</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="85">
@@ -1880,7 +1880,7 @@
         <v>128.94</v>
       </c>
       <c r="E85" t="n">
-        <v>20.63158172499962</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="86">
@@ -1897,7 +1897,7 @@
         <v>129.1</v>
       </c>
       <c r="E86" t="n">
-        <v>18.95064130851307</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -1914,7 +1914,7 @@
         <v>139.47</v>
       </c>
       <c r="E87" t="n">
-        <v>20.51433981844274</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="88">
@@ -1931,7 +1931,7 @@
         <v>140.89</v>
       </c>
       <c r="E88" t="n">
-        <v>21.82658898243657</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="89">
@@ -1948,7 +1948,7 @@
         <v>131.59</v>
       </c>
       <c r="E89" t="n">
-        <v>18.82871254195333</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="90">
@@ -1965,7 +1965,7 @@
         <v>121.12</v>
       </c>
       <c r="E90" t="n">
-        <v>17.28617847086618</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +1982,7 @@
         <v>131.51</v>
       </c>
       <c r="E91" t="n">
-        <v>19.85719466672368</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="92">
@@ -1999,7 +1999,7 @@
         <v>136.55</v>
       </c>
       <c r="E92" t="n">
-        <v>20.67877390253583</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>141.49</v>
       </c>
       <c r="E93" t="n">
-        <v>20.15888925168101</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="94">
@@ -2033,7 +2033,7 @@
         <v>140.61</v>
       </c>
       <c r="E94" t="n">
-        <v>19.3390649627765</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="95">
@@ -2050,7 +2050,7 @@
         <v>112.14</v>
       </c>
       <c r="E95" t="n">
-        <v>16.46107603668982</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="96">
@@ -2067,7 +2067,7 @@
         <v>133.46</v>
       </c>
       <c r="E96" t="n">
-        <v>19.11264145538404</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="97">
@@ -2084,7 +2084,7 @@
         <v>131.8</v>
       </c>
       <c r="E97" t="n">
-        <v>18.6083610616607</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="98">
@@ -2101,7 +2101,7 @@
         <v>120.03</v>
       </c>
       <c r="E98" t="n">
-        <v>19.20010599360963</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="99">
@@ -2118,7 +2118,7 @@
         <v>123.1</v>
       </c>
       <c r="E99" t="n">
-        <v>21.50693330363377</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="100">
@@ -2135,7 +2135,7 @@
         <v>128.14</v>
       </c>
       <c r="E100" t="n">
-        <v>20.20374252901398</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="101">
@@ -2152,7 +2152,7 @@
         <v>115.48</v>
       </c>
       <c r="E101" t="n">
-        <v>17.10425898714005</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="102">
@@ -2169,7 +2169,7 @@
         <v>102.09</v>
       </c>
       <c r="E102" t="n">
-        <v>17.05317567901061</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="103">
@@ -2186,7 +2186,7 @@
         <v>130.35</v>
       </c>
       <c r="E103" t="n">
-        <v>20.35660313668971</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="104">
@@ -2203,7 +2203,7 @@
         <v>134.18</v>
       </c>
       <c r="E104" t="n">
-        <v>20.18926961893184</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="105">
@@ -2220,7 +2220,7 @@
         <v>98.64</v>
       </c>
       <c r="E105" t="n">
-        <v>16.1073036604394</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="106">
@@ -2237,7 +2237,7 @@
         <v>114.56</v>
       </c>
       <c r="E106" t="n">
-        <v>17.53864624609579</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="107">
@@ -2254,7 +2254,7 @@
         <v>123.49</v>
       </c>
       <c r="E107" t="n">
-        <v>18.76153611071111</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="108">
@@ -2271,7 +2271,7 @@
         <v>123.05</v>
       </c>
       <c r="E108" t="n">
-        <v>18.89415567347189</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="109">
@@ -2288,7 +2288,7 @@
         <v>126.48</v>
       </c>
       <c r="E109" t="n">
-        <v>20.21965118851023</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="110">
@@ -2305,7 +2305,7 @@
         <v>128.42</v>
       </c>
       <c r="E110" t="n">
-        <v>18.72074378097901</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="111">
@@ -2322,7 +2322,7 @@
         <v>127.19</v>
       </c>
       <c r="E111" t="n">
-        <v>21.93699159209974</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="112">
@@ -2339,7 +2339,7 @@
         <v>122.06</v>
       </c>
       <c r="E112" t="n">
-        <v>18.70894614755954</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="113">
@@ -2356,7 +2356,7 @@
         <v>127.61</v>
       </c>
       <c r="E113" t="n">
-        <v>18.28008823123227</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="114">
@@ -2373,7 +2373,7 @@
         <v>131.64</v>
       </c>
       <c r="E114" t="n">
-        <v>18.78223400069352</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="115">
@@ -2390,7 +2390,7 @@
         <v>111.9</v>
       </c>
       <c r="E115" t="n">
-        <v>18.08465986188439</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="116">
@@ -2407,7 +2407,7 @@
         <v>122.04</v>
       </c>
       <c r="E116" t="n">
-        <v>17.50217015955852</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="117">
@@ -2424,7 +2424,7 @@
         <v>128.55</v>
       </c>
       <c r="E117" t="n">
-        <v>19.19583907674136</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="118">
@@ -2441,7 +2441,7 @@
         <v>132.68</v>
       </c>
       <c r="E118" t="n">
-        <v>19.69754971656683</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="119">
@@ -2458,7 +2458,7 @@
         <v>136.06</v>
       </c>
       <c r="E119" t="n">
-        <v>19.65293333293062</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="120">
@@ -2475,7 +2475,7 @@
         <v>115.94</v>
       </c>
       <c r="E120" t="n">
-        <v>19.01915212891723</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -2492,7 +2492,7 @@
         <v>136.9</v>
       </c>
       <c r="E121" t="n">
-        <v>20.31223756160041</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="122">
@@ -2509,7 +2509,7 @@
         <v>119.88</v>
       </c>
       <c r="E122" t="n">
-        <v>19.46277693610441</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="123">
@@ -2526,7 +2526,7 @@
         <v>109.01</v>
       </c>
       <c r="E123" t="n">
-        <v>16.96322439061429</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -2543,7 +2543,7 @@
         <v>128.27</v>
       </c>
       <c r="E124" t="n">
-        <v>18.70965305707889</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="125">
@@ -2560,7 +2560,7 @@
         <v>135.29</v>
       </c>
       <c r="E125" t="n">
-        <v>20.00935073266766</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -2577,7 +2577,7 @@
         <v>106.86</v>
       </c>
       <c r="E126" t="n">
-        <v>16.27323675555894</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="127">
@@ -2594,7 +2594,7 @@
         <v>123.29</v>
       </c>
       <c r="E127" t="n">
-        <v>20.12022820567423</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="128">
@@ -2611,7 +2611,7 @@
         <v>109.51</v>
       </c>
       <c r="E128" t="n">
-        <v>17.40685639774808</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="129">
@@ -2628,7 +2628,7 @@
         <v>119.31</v>
       </c>
       <c r="E129" t="n">
-        <v>18.17454196941872</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="130">
@@ -2645,7 +2645,7 @@
         <v>140.24</v>
       </c>
       <c r="E130" t="n">
-        <v>20.77157326252615</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="131">
@@ -2662,7 +2662,7 @@
         <v>133.98</v>
       </c>
       <c r="E131" t="n">
-        <v>19.08889661417925</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="132">
@@ -2679,7 +2679,7 @@
         <v>132.58</v>
       </c>
       <c r="E132" t="n">
-        <v>19.99530656853812</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -2696,7 +2696,7 @@
         <v>130.7</v>
       </c>
       <c r="E133" t="n">
-        <v>18.10754432813147</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="134">
@@ -2713,7 +2713,7 @@
         <v>115.56</v>
       </c>
       <c r="E134" t="n">
-        <v>17.01223199673934</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135">
@@ -2730,7 +2730,7 @@
         <v>123.79</v>
       </c>
       <c r="E135" t="n">
-        <v>20.9808793498803</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -2747,7 +2747,7 @@
         <v>128.14</v>
       </c>
       <c r="E136" t="n">
-        <v>17.81785319422523</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="137">
@@ -2764,7 +2764,7 @@
         <v>135.96</v>
       </c>
       <c r="E137" t="n">
-        <v>20.53513602278612</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="138">
@@ -2781,7 +2781,7 @@
         <v>116.63</v>
       </c>
       <c r="E138" t="n">
-        <v>18.86625657483968</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="139">
@@ -2798,7 +2798,7 @@
         <v>126.82</v>
       </c>
       <c r="E139" t="n">
-        <v>19.60028939881309</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="140">
@@ -2815,7 +2815,7 @@
         <v>151.39</v>
       </c>
       <c r="E140" t="n">
-        <v>19.48579684393333</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="141">
@@ -2832,7 +2832,7 @@
         <v>130.4</v>
       </c>
       <c r="E141" t="n">
-        <v>18.71714364051891</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="142">
@@ -2849,7 +2849,7 @@
         <v>136.21</v>
       </c>
       <c r="E142" t="n">
-        <v>19.81067732187481</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="143">
@@ -2866,7 +2866,7 @@
         <v>113.4</v>
       </c>
       <c r="E143" t="n">
-        <v>18.76265100127493</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="144">
@@ -2883,7 +2883,7 @@
         <v>125.33</v>
       </c>
       <c r="E144" t="n">
-        <v>19.04668275352937</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -2900,7 +2900,7 @@
         <v>127.58</v>
       </c>
       <c r="E145" t="n">
-        <v>19.20182498709557</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="146">
@@ -2917,7 +2917,7 @@
         <v>107.16</v>
       </c>
       <c r="E146" t="n">
-        <v>17.7302088297762</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="147">
@@ -2934,7 +2934,7 @@
         <v>116.46</v>
       </c>
       <c r="E147" t="n">
-        <v>17.56928452448074</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="148">
@@ -2951,7 +2951,7 @@
         <v>133.84</v>
       </c>
       <c r="E148" t="n">
-        <v>20.00909688861501</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
@@ -2968,7 +2968,7 @@
         <v>112.89</v>
       </c>
       <c r="E149" t="n">
-        <v>19.07418110852086</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="150">
@@ -2985,7 +2985,7 @@
         <v>130.76</v>
       </c>
       <c r="E150" t="n">
-        <v>19.46905504403418</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="151">
@@ -3002,7 +3002,7 @@
         <v>137.76</v>
       </c>
       <c r="E151" t="n">
-        <v>20.40424937710783</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="152">
@@ -3019,7 +3019,7 @@
         <v>125.4</v>
       </c>
       <c r="E152" t="n">
-        <v>18.22795811440268</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="153">
@@ -3036,7 +3036,7 @@
         <v>138.47</v>
       </c>
       <c r="E153" t="n">
-        <v>21.42622974104703</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="154">
@@ -3053,7 +3053,7 @@
         <v>120.82</v>
       </c>
       <c r="E154" t="n">
-        <v>19.21616273651438</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="155">
@@ -3070,7 +3070,7 @@
         <v>140.15</v>
       </c>
       <c r="E155" t="n">
-        <v>22.60911145368264</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="156">
@@ -3087,7 +3087,7 @@
         <v>136.74</v>
       </c>
       <c r="E156" t="n">
-        <v>18.31675558994071</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="157">
@@ -3104,7 +3104,7 @@
         <v>106.11</v>
       </c>
       <c r="E157" t="n">
-        <v>18.13609127594423</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="158">
@@ -3121,7 +3121,7 @@
         <v>158.96</v>
       </c>
       <c r="E158" t="n">
-        <v>22.17817072167114</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="159">
@@ -3138,7 +3138,7 @@
         <v>108.79</v>
       </c>
       <c r="E159" t="n">
-        <v>16.78383839620903</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="160">
@@ -3155,7 +3155,7 @@
         <v>138.78</v>
       </c>
       <c r="E160" t="n">
-        <v>18.80747560793058</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="161">
@@ -3172,7 +3172,7 @@
         <v>115.91</v>
       </c>
       <c r="E161" t="n">
-        <v>19.10167257441798</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="162">
@@ -3189,7 +3189,7 @@
         <v>146.29</v>
       </c>
       <c r="E162" t="n">
-        <v>22.85274587188409</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="163">
@@ -3206,7 +3206,7 @@
         <v>109.88</v>
       </c>
       <c r="E163" t="n">
-        <v>18.62909076644059</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="164">
@@ -3223,7 +3223,7 @@
         <v>139.05</v>
       </c>
       <c r="E164" t="n">
-        <v>20.31128791380783</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="165">
@@ -3240,7 +3240,7 @@
         <v>119.9</v>
       </c>
       <c r="E165" t="n">
-        <v>18.02481634292172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -3257,7 +3257,7 @@
         <v>128.31</v>
       </c>
       <c r="E166" t="n">
-        <v>21.14516096992124</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="167">
@@ -3274,7 +3274,7 @@
         <v>127.24</v>
       </c>
       <c r="E167" t="n">
-        <v>19.84133294376499</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="168">
@@ -3291,7 +3291,7 @@
         <v>115.23</v>
       </c>
       <c r="E168" t="n">
-        <v>17.31770002485455</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="169">
@@ -3308,7 +3308,7 @@
         <v>124.8</v>
       </c>
       <c r="E169" t="n">
-        <v>19.96311945349064</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
@@ -3325,7 +3325,7 @@
         <v>126.95</v>
       </c>
       <c r="E170" t="n">
-        <v>19.76665950005239</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="171">
@@ -3342,7 +3342,7 @@
         <v>111.27</v>
       </c>
       <c r="E171" t="n">
-        <v>17.96104866101241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -3359,7 +3359,7 @@
         <v>122.61</v>
       </c>
       <c r="E172" t="n">
-        <v>17.87892572064367</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="173">
@@ -3376,7 +3376,7 @@
         <v>124.21</v>
       </c>
       <c r="E173" t="n">
-        <v>18.89869778311091</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="174">
@@ -3393,7 +3393,7 @@
         <v>124.65</v>
       </c>
       <c r="E174" t="n">
-        <v>19.08338211047346</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="175">
@@ -3410,7 +3410,7 @@
         <v>119.52</v>
       </c>
       <c r="E175" t="n">
-        <v>19.71469901795772</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="176">
@@ -3427,7 +3427,7 @@
         <v>139.3</v>
       </c>
       <c r="E176" t="n">
-        <v>17.96367700850348</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -3444,7 +3444,7 @@
         <v>104.83</v>
       </c>
       <c r="E177" t="n">
-        <v>16.5086857431534</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="178">
@@ -3461,7 +3461,7 @@
         <v>123.04</v>
       </c>
       <c r="E178" t="n">
-        <v>19.33008611079553</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="179">
@@ -3478,7 +3478,7 @@
         <v>118.89</v>
       </c>
       <c r="E179" t="n">
-        <v>19.33729780791474</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="180">
@@ -3495,7 +3495,7 @@
         <v>121.49</v>
       </c>
       <c r="E180" t="n">
-        <v>19.61669175082727</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="181">
@@ -3512,7 +3512,7 @@
         <v>119.25</v>
       </c>
       <c r="E181" t="n">
-        <v>18.90952693998168</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="182">
@@ -3529,7 +3529,7 @@
         <v>135.02</v>
       </c>
       <c r="E182" t="n">
-        <v>21.07334533760121</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="183">
@@ -3546,7 +3546,7 @@
         <v>116.23</v>
       </c>
       <c r="E183" t="n">
-        <v>18.83010618586483</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="184">
@@ -3563,7 +3563,7 @@
         <v>109.17</v>
       </c>
       <c r="E184" t="n">
-        <v>17.20760146361954</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="185">
@@ -3580,7 +3580,7 @@
         <v>124.22</v>
       </c>
       <c r="E185" t="n">
-        <v>18.47916432673198</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="186">
@@ -3597,7 +3597,7 @@
         <v>141.16</v>
       </c>
       <c r="E186" t="n">
-        <v>22.62101031350307</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="187">
@@ -3614,7 +3614,7 @@
         <v>129.15</v>
       </c>
       <c r="E187" t="n">
-        <v>20.86618121368434</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="188">
@@ -3631,7 +3631,7 @@
         <v>127.87</v>
       </c>
       <c r="E188" t="n">
-        <v>19.1110065691213</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="189">
@@ -3648,7 +3648,7 @@
         <v>120.92</v>
       </c>
       <c r="E189" t="n">
-        <v>19.16858111014226</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="190">
@@ -3665,7 +3665,7 @@
         <v>127.65</v>
       </c>
       <c r="E190" t="n">
-        <v>20.00645213608634</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -3682,7 +3682,7 @@
         <v>101.47</v>
       </c>
       <c r="E191" t="n">
-        <v>15.38893000740748</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="192">
@@ -3699,7 +3699,7 @@
         <v>144.99</v>
       </c>
       <c r="E192" t="n">
-        <v>20.68699565299723</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="193">
@@ -3716,7 +3716,7 @@
         <v>110.95</v>
       </c>
       <c r="E193" t="n">
-        <v>18.16725814256342</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="194">
@@ -3733,7 +3733,7 @@
         <v>132.86</v>
       </c>
       <c r="E194" t="n">
-        <v>20.52161012712535</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="195">
@@ -3750,7 +3750,7 @@
         <v>146.34</v>
       </c>
       <c r="E195" t="n">
-        <v>22.63728062114114</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="196">
@@ -3767,7 +3767,7 @@
         <v>145.59</v>
       </c>
       <c r="E196" t="n">
-        <v>21.08989725413986</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="197">
@@ -3784,7 +3784,7 @@
         <v>120.84</v>
       </c>
       <c r="E197" t="n">
-        <v>19.6186350096668</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="198">
@@ -3801,7 +3801,7 @@
         <v>115.78</v>
       </c>
       <c r="E198" t="n">
-        <v>18.62126107474158</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="199">
@@ -3818,7 +3818,7 @@
         <v>128.3</v>
       </c>
       <c r="E199" t="n">
-        <v>19.36682722771515</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="200">
@@ -3835,7 +3835,7 @@
         <v>127.47</v>
       </c>
       <c r="E200" t="n">
-        <v>19.36620785514896</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="201">
@@ -3852,7 +3852,7 @@
         <v>127.88</v>
       </c>
       <c r="E201" t="n">
-        <v>17.63752822835307</v>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
